--- a/biology/Médecine/Franz_Pruner/Franz_Pruner.xlsx
+++ b/biology/Médecine/Franz_Pruner/Franz_Pruner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Ignaz Pruner, connu sous le nom de Franz Pruner-Bey après son séjour en Égypte, est un médecin, ophtalmologiste et anthropologue bavarois, est né à Pfreimd, district du Haut-Palatinat, le 8 mars 1808, et mort à Pise le 29 septembre 1882.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a étudié la médecine à Munich et a participé en 1831 à une expédition scientifique en Égypte.
 Pendant son séjour en Égypte, il a été nommé par le vice-roi Méhémet Ali (1769-1849) président de l'anatomie et de la physiologie à la faculté de médecine d'Abuzabel, près du Caire. Cette institution avait récemment été créée en 1825 par le médecin français Antoine Clot (1793-1868). En 1832, il revient en Europe et étudie avec Francesco Flarer (en) (1791–1859) à Pavie. Peu de temps après, il est retourné au Caire en tant que directeur d'un hôpital militaire. Par la suite, il a été professeur d'ophtalmologie ainsi que directeur de l'hôpital de Qasr El Eyni. En 1839, il devint médecin de la royauté égyptienne et reçut le titre de bey. 
 Pendant son séjour en Égypte, Pruner s'est occupé du traitement d'épidémies telles que la peste bubonique, le choléra et la fièvre typhoïde. Il a également travaillé sur les maladies tropicales et était préoccupé par les troubles ophtalmiques, notamment le trachome et la conjonctivite. En 1847, il a fourni la première description complète de la pentastomiase chez l'homme.
 Il est connu pour ces recherches en anthropologie, linguistique, ethnologie et ethnographie. Il a publié plus de 120 ouvrages dans ces domaines. Il est nommé en 1865 président de la Société d'anthropologie de Paris.
-Il est opposé aux thèses de Darwin. Les positions qu'il affirme sont dénuées de fondement et offrent encore des arguments aux mouvements racistes actuels. Dans les débats dans la Société d'anthropologie de Paris avec le polygénisme de Paul Broca. Il défendait le monogénisme de James Cowles Prichard à partir de l'affirmation de unité de souche des langues[1]. Pruner a étudié la structure raciale de Noirs en Egypte. Dans un livre qu'il a écrit en 1846, il a affirmé que le sang des Noirs avait une influence négative sur le caractère moral égyptien. Il a publié une monographie sur les Noirs en 1861. Il a affirmé que la caractéristique principale du squelette des Noirs était le prognathisme, qui selon lui était dû à la relation des Noirs avec le singe. Il a également affirmé que Noirs avait un cerveau très similaire aux singes et que les Noirs ont un gros orteil raccourci qui est un personnage qui relie les Noirs aux singes. 
+Il est opposé aux thèses de Darwin. Les positions qu'il affirme sont dénuées de fondement et offrent encore des arguments aux mouvements racistes actuels. Dans les débats dans la Société d'anthropologie de Paris avec le polygénisme de Paul Broca. Il défendait le monogénisme de James Cowles Prichard à partir de l'affirmation de unité de souche des langues. Pruner a étudié la structure raciale de Noirs en Egypte. Dans un livre qu'il a écrit en 1846, il a affirmé que le sang des Noirs avait une influence négative sur le caractère moral égyptien. Il a publié une monographie sur les Noirs en 1861. Il a affirmé que la caractéristique principale du squelette des Noirs était le prognathisme, qui selon lui était dû à la relation des Noirs avec le singe. Il a également affirmé que Noirs avait un cerveau très similaire aux singes et que les Noirs ont un gros orteil raccourci qui est un personnage qui relie les Noirs aux singes. 
 À la découverte des restes humains dans l'Abri de Cro-Magnon, il a affirmé dans le livre Reliquiae Aquitanicae des thèses qui sont remises en cause par Paul Broca.
 </t>
         </is>
@@ -547,12 +561,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tentamen de morborum transitionibus,  Munich 1830 (dissertation) (voir) - Examen des maladies contagieuses.
 Ist denn die Pest wirklich ein ansteckendes Übel?, Munich 1839 (voir)
 Die Überbleibsel der altägyptischen Menschenrassen, Munich 1846 (lire en ligne)
-Die Krankheiten des Orients vom Standpunkte der vergleichenden Nosologie betrachtet, Erlangen 1847 [1]
+Die Krankheiten des Orients vom Standpunkte der vergleichenden Nosologie betrachtet, Erlangen 1847 
 Topographie médicale du Caire avec le plan de la ville et des environs, Munich 1847
 Die Weltseuche Cholera und die Polizei der Natur, Erlangen 1851 (lire en ligne)
 Der Mensch im Raume und in der Zeit, Munich 1859 (voir)
